--- a/Missing data/Missing road data.xlsx
+++ b/Missing data/Missing road data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Infrastructure\Output\8. Missing data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\Output\Missing data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60DE9B4-DC7C-4850-9EC0-31ADBCCEFB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C39C8CF-2BB4-40C8-B40A-68CA219F8CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EBB0857B-8661-41F9-BD66-72B73833C6EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EBB0857B-8661-41F9-BD66-72B73833C6EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Missing_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -566,22 +566,22 @@
     <t>zimbabwe</t>
   </si>
   <si>
-    <t>Population</t>
-  </si>
-  <si>
     <t>Populated area with no road information (%)</t>
   </si>
   <si>
-    <t>Populated area with no road count (km2)</t>
-  </si>
-  <si>
-    <t>Populated area (km2)</t>
-  </si>
-  <si>
-    <t>Total land area (km2)</t>
-  </si>
-  <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Populated area with no road count (km2) - extracted from disaster.ninja</t>
+  </si>
+  <si>
+    <t>Populated area (km2) - extracted from disaster.ninja</t>
+  </si>
+  <si>
+    <t>Population - extracted from disaster.ninja</t>
+  </si>
+  <si>
+    <t>Total land area (km2) - extracted from disaster.ninja</t>
   </si>
 </sst>
 </file>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A3D131-F157-4A2C-A45C-C144EAFB01F0}">
   <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,10 +965,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
         <v>179</v>
@@ -977,10 +977,10 @@
         <v>178</v>
       </c>
       <c r="E1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/Missing data/Missing road data.xlsx
+++ b/Missing data/Missing road data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\Output\Missing data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\TRIPI-GH-v100\Missing data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C39C8CF-2BB4-40C8-B40A-68CA219F8CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FC6C1CD-0200-4E4B-8A6F-549C05881AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EBB0857B-8661-41F9-BD66-72B73833C6EF}"/>
+    <workbookView xWindow="17085" yWindow="645" windowWidth="14370" windowHeight="19110" activeTab="1" xr2:uid="{EBB0857B-8661-41F9-BD66-72B73833C6EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Missing_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Coversheet" sheetId="2" r:id="rId1"/>
+    <sheet name="Missing_data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>afghanistan</t>
   </si>
@@ -582,6 +583,58 @@
   </si>
   <si>
     <t>Total land area (km2) - extracted from disaster.ninja</t>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking.</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CircoMod – Circular Economy Modelling for Climate Change Mitigation 101056868 </t>
+  </si>
+  <si>
+    <t>Content:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Van Engelenburg, M., Deetman, S., Fishman, T., Behrens, P., &amp; van der Voet, E. (2024). TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In review</t>
+    </r>
+  </si>
+  <si>
+    <t>Contact:</t>
+  </si>
+  <si>
+    <t>Martijn van Engelenburg</t>
+  </si>
+  <si>
+    <t>m.van.engelenburg@cml.leidenuniv.nl</t>
+  </si>
+  <si>
+    <t>CML</t>
+  </si>
+  <si>
+    <t>Leiden University</t>
+  </si>
+  <si>
+    <t>Data on missing information v.1.0.0</t>
   </si>
 </sst>
 </file>
@@ -591,7 +644,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,6 +653,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -624,19 +704,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="3" xr:uid="{4C2F844D-5516-4115-BB41-54014A027210}"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard 2 2" xfId="4" xr:uid="{F2B64302-FC9B-4651-9295-802AA905C0BA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -649,6 +738,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43139</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C5BDF7-5CB7-4AA5-BCBE-AEA9A3AD6245}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="190501"/>
+          <a:ext cx="3091139" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CircoMod – Circular Economy Modelling for Climate Change Mitigation –  iamconsortium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E99F02-B526-423F-9AEC-50B9158FD2DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3686175" y="190500"/>
+          <a:ext cx="2600325" cy="1715303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -947,11 +1163,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E385D8-56B9-47D6-8E0E-B9BD7AE7A8CD}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B12:C24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{F578F9BD-CAFE-44D5-AB24-C127A031675D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A3D131-F157-4A2C-A45C-C144EAFB01F0}">
   <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
